--- a/Resources/Clean/Plot_CompareSpringAndSummer.xlsx
+++ b/Resources/Clean/Plot_CompareSpringAndSummer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missy\Documents\GitHub\ProjectOne\Resources\Clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C555FC27-193B-489C-BC95-ED872286059A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D9320-F487-4A0A-9AE4-1E25ED0EE683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2220" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22500" yWindow="-450" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Calendar Year</t>
   </si>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,21 +133,143 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1910,8 +2038,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3038703-6048-44EF-9D8A-779FB638AA83}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3038703-6048-44EF-9D8A-779FB638AA83}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
@@ -1966,7 +2094,7 @@
   <colFields count="1">
     <field x="0"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -1979,14 +2107,51 @@
     <i>
       <x v="3"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Visitors" fld="4" baseField="1" baseItem="4" numFmtId="3"/>
   </dataFields>
-  <chartFormats count="4">
+  <formats count="10">
+    <format dxfId="19">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="12">
     <chartFormat chart="3" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2035,8 +2200,104 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="7" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2372,185 +2633,171 @@
   <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2017</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2018</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>2019</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2020</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>992657</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1064691</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1155917</v>
+      </c>
+      <c r="E5" s="5">
+        <v>550521</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1266715</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1195308</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1290567</v>
+      </c>
+      <c r="E6" s="5">
+        <v>66384</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1637021</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1608871</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1582516</v>
+      </c>
+      <c r="E7" s="5">
+        <v>150094</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2061602</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2065430</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2081930</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1046707</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2585434</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2374889</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2624976</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2185952</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2707533</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2393532</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2805117</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2309622</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
-        <v>992657</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1064691</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1155917</v>
-      </c>
-      <c r="E5" s="4">
-        <v>550521</v>
-      </c>
-      <c r="F5" s="4">
-        <v>3763786</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1266715</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1195308</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1290567</v>
-      </c>
-      <c r="E6" s="4">
-        <v>66384</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3818974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1637021</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1608871</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1582516</v>
-      </c>
-      <c r="E7" s="4">
-        <v>150094</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4978502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2061602</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2065430</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2081930</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1046707</v>
-      </c>
-      <c r="F8" s="4">
-        <v>7255669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2585434</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2374889</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2624976</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2185952</v>
-      </c>
-      <c r="F9" s="4">
-        <v>9771251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2707533</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2393532</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2805117</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2309622</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10215804</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>11250962</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>10702721</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>11541023</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>6309280</v>
       </c>
-      <c r="F11" s="4">
-        <v>39803986</v>
-      </c>
+      <c r="F11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/Clean/Plot_CompareSpringAndSummer.xlsx
+++ b/Resources/Clean/Plot_CompareSpringAndSummer.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missy\Documents\GitHub\ProjectOne\Resources\Clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D9320-F487-4A0A-9AE4-1E25ED0EE683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B10F3D4-946D-47BD-B014-BDA319E27FFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22500" yWindow="-450" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2220" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId1"/>
     <sheet name="Compare Spring And Summer YOY" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -148,67 +148,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -296,7 +236,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Plot_CompareSpringAndSummer.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[Plot_CompareSpringAndSummer.xlsx]Chart!PivotTable1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -615,7 +555,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$4</c:f>
+              <c:f>Chart!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -636,7 +576,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Chart!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -662,7 +602,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$11</c:f>
+              <c:f>Chart!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -698,7 +638,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3:$C$4</c:f>
+              <c:f>Chart!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -719,7 +659,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Chart!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -745,7 +685,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$11</c:f>
+              <c:f>Chart!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -781,7 +721,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3:$D$4</c:f>
+              <c:f>Chart!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,7 +742,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Chart!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -828,7 +768,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$11</c:f>
+              <c:f>Chart!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -864,7 +804,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3:$E$4</c:f>
+              <c:f>Chart!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -885,7 +825,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$11</c:f>
+              <c:f>Chart!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -911,7 +851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$11</c:f>
+              <c:f>Chart!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2038,7 +1978,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3038703-6048-44EF-9D8A-779FB638AA83}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3038703-6048-44EF-9D8A-779FB638AA83}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -2112,42 +2052,42 @@
     <dataField name="Sum of Visitors" fld="4" baseField="1" baseItem="4" numFmtId="3"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="19">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="7">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="6">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2633,7 +2573,7 @@
   <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F17" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2750,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
